--- a/xlsx/耶诞节_intext.xlsx
+++ b/xlsx/耶诞节_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="950">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="928">
   <si>
     <t>耶诞节</t>
   </si>
@@ -29,7 +29,7 @@
     <t>圣诞 (消歧义)</t>
   </si>
   <si>
-    <t>政策_政策_美國_耶诞节</t>
+    <t>政策_政策_美国_耶诞节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E5%BE%92</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%A4%A9%E4%B8%BB%E6%95%99%E8%81%96%E4%BA%BA%E6%9B%86</t>
   </si>
   <si>
-    <t>羅馬天主教聖人曆</t>
+    <t>罗马天主教圣人历</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%BF%97</t>
@@ -77,13 +77,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AF%80%E6%85%B6</t>
   </si>
   <si>
-    <t>節慶</t>
+    <t>节庆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%9A%9B%E9%97%9C%E4%BF%82</t>
   </si>
   <si>
-    <t>人際關係</t>
+    <t>人际关系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/12%E6%9C%8825%E6%97%A5</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%96%B9%E5%9F%BA%E7%9D%A3%E6%95%99</t>
   </si>
   <si>
-    <t>東方基督教</t>
+    <t>东方基督教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1%E6%9C%887%E6%97%A5</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%84%92%E7%95%A5%E6%9B%86</t>
   </si>
   <si>
-    <t>儒略曆</t>
+    <t>儒略历</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1%E6%9C%886%E6%97%A5</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%87%E8%87%A8%E6%9C%9F</t>
   </si>
   <si>
-    <t>將臨期</t>
+    <t>将临期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E6%AF%8D%E9%A2%86%E6%8A%A5</t>
@@ -149,13 +149,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%AA%95%E5%A4%9C</t>
   </si>
   <si>
-    <t>聖誕夜</t>
+    <t>圣诞夜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E9%A1%AF%E7%AF%80</t>
   </si>
   <si>
-    <t>主顯節</t>
+    <t>主显节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%93%E6%88%90%E8%82%89%E8%BA%AB</t>
@@ -185,31 +185,28 @@
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E7%A9%8C</t>
   </si>
   <si>
-    <t>耶穌</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E4%BA%BA</t>
   </si>
   <si>
-    <t>聖人</t>
+    <t>圣人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E6%AD%A3%E7%A2%BA</t>
   </si>
   <si>
-    <t>政治正確</t>
+    <t>政治正确</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E6%9C%83%E5%B9%B4%E6%9B%86</t>
   </si>
   <si>
-    <t>教會年曆</t>
+    <t>教会年历</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>教會</t>
+    <t>教会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Octave_(liturgical)</t>
@@ -227,7 +224,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>國家</t>
+    <t>国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%96%B9%E4%B8%96%E7%95%8C</t>
@@ -263,7 +260,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%B6%93</t>
   </si>
   <si>
-    <t>聖經</t>
+    <t>圣经</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%A6%E6%9C%AF</t>
@@ -287,7 +284,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BE%85%E9%A6%AC</t>
   </si>
   <si>
-    <t>古羅馬</t>
+    <t>古罗马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%AC%E8%87%B3</t>
@@ -305,19 +302,19 @@
     <t>https://zh.wikipedia.org/wiki/4%E4%B8%96%E7%B4%80</t>
   </si>
   <si>
-    <t>4世紀</t>
+    <t>4世纪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>正教會</t>
+    <t>正教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E6%A5%AD</t>
   </si>
   <si>
-    <t>商業</t>
+    <t>商业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%91%E4%BB%A3</t>
@@ -329,19 +326,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%9E</t>
   </si>
   <si>
-    <t>東亞</t>
+    <t>东亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B2%BB</t>
   </si>
   <si>
-    <t>消費</t>
+    <t>消费</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BC%E7%89%A9</t>
   </si>
   <si>
-    <t>購物</t>
+    <t>购物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3</t>
@@ -389,61 +386,61 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AA%9E</t>
   </si>
   <si>
-    <t>西班牙語</t>
+    <t>西班牙语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99%E8%AA%9E</t>
   </si>
   <si>
-    <t>葡萄牙語</t>
+    <t>葡萄牙语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD%E8%AA%9E</t>
   </si>
   <si>
-    <t>波蘭語</t>
+    <t>波兰语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E</t>
   </si>
   <si>
-    <t>法語</t>
+    <t>法语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E8%AA%9E</t>
   </si>
   <si>
-    <t>意大利語</t>
+    <t>意大利语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%B3%B0%E7%BE%85%E5%B0%BC%E4%BA%9E%E8%AA%9E</t>
   </si>
   <si>
-    <t>加泰羅尼亞語</t>
+    <t>加泰罗尼亚语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E8%AA%9E</t>
   </si>
   <si>
-    <t>德語</t>
+    <t>德语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%B8%AD%E8%8F%AF%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>大中華地區</t>
+    <t>大中华地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E5%8D%97</t>
   </si>
   <si>
-    <t>華南</t>
+    <t>华南</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E4%BA%BA</t>
   </si>
   <si>
-    <t>華人</t>
+    <t>华人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%AF%E6%BE%B3</t>
@@ -455,43 +452,43 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3</t>
   </si>
   <si>
-    <t>臺灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%86%B2%E7%B4%80%E5%BF%B5%E6%97%A5</t>
   </si>
   <si>
-    <t>行憲紀念日</t>
+    <t>行宪纪念日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>中國大陸</t>
+    <t>中国大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%B9%E9%9D%A9%E9%96%8B%E6%94%BE</t>
   </si>
   <si>
-    <t>改革開放</t>
+    <t>改革开放</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E7%BE%8E</t>
   </si>
   <si>
-    <t>歐美</t>
+    <t>欧美</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E6%B0%91%E9%96%93%E4%BF%A1%E4%BB%B0</t>
   </si>
   <si>
-    <t>中國民間信仰</t>
+    <t>中国民间信仰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E9%99%A2%E6%96%B0%E8%81%9E%E5%B1%80</t>
   </si>
   <si>
-    <t>行政院新聞局</t>
+    <t>行政院新闻局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8B%E6%A5%9A%E7%91%9C</t>
@@ -509,13 +506,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%AD%B7%E5%B1%B1%E5%A4%AA%E7%9A%84%E9%9D%A9%E5%88%A9%E5%85%8D</t>
   </si>
   <si>
-    <t>亞歷山太的革利免</t>
+    <t>亚历山太的革利免</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E5%B0%BC%E8%A5%BF%E4%BA%9E%E5%85%AC%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>第一次尼西亞公會議</t>
+    <t>第一次尼西亚公会议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E7%83%9B%E8%8A%82</t>
@@ -533,7 +530,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E7%A9%8C%E5%8F%97%E9%9B%A3%E6%97%A5</t>
   </si>
   <si>
-    <t>耶穌受難日</t>
+    <t>耶稣受难日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E7%89%B9%E6%8B%89%E6%95%99</t>
@@ -647,7 +644,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%AD%A3%E6%95%99</t>
   </si>
   <si>
-    <t>東正教</t>
+    <t>东正教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%8E%86</t>
@@ -665,7 +662,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%A9%E6%B4%BB%E7%AF%80</t>
   </si>
   <si>
-    <t>復活節</t>
+    <t>复活节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%85%8B%E5%85%B0</t>
@@ -713,7 +710,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A1%8D%E6%88%91%E7%95%A5%E4%B8%80%E4%B8%96</t>
   </si>
   <si>
-    <t>額我略一世</t>
+    <t>额我略一世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%88%A9%E5%BC%97%C2%B7%E5%85%8B%E4%BC%A6%E5%A8%81%E5%B0%94</t>
@@ -755,13 +752,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%88%88%E5%AE%97%E6%95%99</t>
   </si>
   <si>
-    <t>新興宗教</t>
+    <t>新兴宗教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E5%92%8C%E8%8F%AF%E8%A6%8B%E8%AD%89%E4%BA%BA</t>
   </si>
   <si>
-    <t>耶和華見證人</t>
+    <t>耶和华见证人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%AC%A7</t>
@@ -779,7 +776,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E8%AA%AA</t>
   </si>
   <si>
-    <t>傳說</t>
+    <t>传说</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%B0%BC%E5%8F%A4%E6%8B%89</t>
@@ -791,13 +788,10 @@
     <t>https://zh.wikipedia.org/wiki/4%E4%B8%96%E7%BA%AA</t>
   </si>
   <si>
-    <t>4世纪</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%82%A3%E6%89%98%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>安那托利亞</t>
+    <t>安那托利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%95%99</t>
@@ -821,9 +815,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AF%AD</t>
   </si>
   <si>
-    <t>法语</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E5%8F%A3%E5%8F%AF%E4%B9%90</t>
   </si>
   <si>
@@ -887,7 +878,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%AA%95%E5%8D%A1</t>
   </si>
   <si>
-    <t>聖誕卡</t>
+    <t>圣诞卡</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Nativity_scene</t>
@@ -899,9 +890,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%AA%95%E6%A8%B9</t>
   </si>
   <si>
-    <t>聖誕樹</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%89</t>
   </si>
   <si>
@@ -953,7 +941,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%AA%95%E5%A4%A7%E9%A4%90</t>
   </si>
   <si>
-    <t>聖誕大餐</t>
+    <t>圣诞大餐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E6%AC%A7</t>
@@ -1043,9 +1031,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BD%97%E9%A9%AC</t>
   </si>
   <si>
-    <t>古罗马</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%AA%E5%BC%8F</t>
   </si>
   <si>
@@ -1061,9 +1046,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%AD%90</t>
   </si>
   <si>
-    <t>東歐</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%8B%89%E5%A4%AB%E4%BA%BA</t>
   </si>
   <si>
@@ -1085,7 +1067,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B2%E6%9D%89</t>
   </si>
   <si>
-    <t>雲杉</t>
+    <t>云杉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%BE%E7%A7%91</t>
@@ -1139,13 +1121,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%81%AF%E8%A7%A3%E9%AB%94</t>
   </si>
   <si>
-    <t>蘇聯解體</t>
+    <t>苏联解体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%80%E5%BE%92</t>
   </si>
   <si>
-    <t>門徒</t>
+    <t>门徒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%BC%E5%BE%97%E5%A4%A7%E5%B8%9D</t>
@@ -1157,7 +1139,7 @@
     <t>https://zh.wikipedia.org/wiki/18%E4%B8%96%E7%B4%80</t>
   </si>
   <si>
-    <t>18世紀</t>
+    <t>18世纪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
@@ -1175,7 +1157,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%8D%E6%A9%8B</t>
   </si>
   <si>
-    <t>劍橋</t>
+    <t>剑桥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1947%E5%B9%B4</t>
@@ -1199,7 +1181,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E6%8B%89%E6%B3%95%E5%8A%A0%E5%BB%A3%E5%A0%B4</t>
   </si>
   <si>
-    <t>特拉法加廣場</t>
+    <t>特拉法加广场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B8%BD%E5%AD%90%E5%B9%BF%E5%9C%BA</t>
@@ -1223,15 +1205,12 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%B0%BC%E5%8F%A4%E6%8B%89%E7%AF%80</t>
   </si>
   <si>
-    <t>聖尼古拉節</t>
+    <t>圣尼古拉节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E6%8B%BF</t>
   </si>
   <si>
@@ -1265,7 +1244,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E5%85%A7%E5%B8%8C%E7%89%B9%C2%B7%E9%AD%AF%E6%99%AE%E9%9B%B7%E5%B8%8C%E7%89%B9</t>
   </si>
   <si>
-    <t>可內希特·魯普雷希特</t>
+    <t>可内希特·鲁普雷希特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9D%8E%E5%8D%9C%E6%96%AF</t>
@@ -1277,13 +1256,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>中國</t>
+    <t>中国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%A5%E7%AF%80</t>
   </si>
   <si>
-    <t>春節</t>
+    <t>春节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%8B%E5%B7%A5%E8%89%BA%E5%93%81</t>
@@ -1445,9 +1424,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>亞洲</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%96%E6%B2%99%E5%92%80</t>
   </si>
   <si>
@@ -1463,7 +1439,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%96%E6%9D%B1</t>
   </si>
   <si>
-    <t>尖東</t>
+    <t>尖东</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF</t>
@@ -1481,9 +1457,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%96%B9%E6%96%87%E5%8C%96</t>
   </si>
   <si>
@@ -1493,19 +1466,16 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E6%9B%86%E6%96%B0%E5%B9%B4</t>
   </si>
   <si>
-    <t>農曆新年</t>
+    <t>农历新年</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AF%80%E7%A6%AE%E6%97%A5</t>
   </si>
   <si>
-    <t>節禮日</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E7%AF%80%E6%97%A5%E8%88%87%E5%85%AC%E7%9C%BE%E5%81%87%E6%9C%9F</t>
   </si>
   <si>
-    <t>香港節日與公眾假期</t>
+    <t>香港节日与公众假期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BE%E5%81%87</t>
@@ -1517,7 +1487,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%85%E9%81%8A</t>
   </si>
   <si>
-    <t>旅遊</t>
+    <t>旅游</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E9%81%A3</t>
@@ -1535,55 +1505,55 @@
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E5%A0%B4</t>
   </si>
   <si>
-    <t>商場</t>
+    <t>商场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%AC%E8%81%96%E5%A4%9C</t>
   </si>
   <si>
-    <t>萬聖夜</t>
+    <t>万圣夜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%AC%E8%81%96%E7%AF%80</t>
   </si>
   <si>
-    <t>萬聖節</t>
+    <t>万圣节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%87%88%E9%A3%BE</t>
   </si>
   <si>
-    <t>燈飾</t>
+    <t>灯饰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%A4%9A%E5%88%A9%E4%BA%9E%E6%B8%AF</t>
   </si>
   <si>
-    <t>維多利亞港</t>
+    <t>维多利亚港</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%92%B0</t>
   </si>
   <si>
-    <t>中環</t>
+    <t>中环</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%BE%E5%B0%8D</t>
   </si>
   <si>
-    <t>派對</t>
+    <t>派对</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%AA%95%E7%A6%AE%E7%89%A9</t>
   </si>
   <si>
-    <t>聖誕禮物</t>
+    <t>圣诞礼物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%AD%E6%A1%82%E5%9D%8A</t>
   </si>
   <si>
-    <t>蘭桂坊</t>
+    <t>兰桂坊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E8%82%A1%E5%B8%82</t>
@@ -1601,55 +1571,52 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8A%85%E9%91%BC%E7%81%A3</t>
   </si>
   <si>
-    <t>銅鑼灣</t>
+    <t>铜锣湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E4%BB%A3%E5%BB%A3%E5%A0%B4_(%E9%A6%99%E6%B8%AF)</t>
   </si>
   <si>
-    <t>時代廣場 (香港)</t>
+    <t>时代广场 (香港)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%AA%95%E8%80%81%E4%BA%BA</t>
   </si>
   <si>
-    <t>聖誕老人</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E9%83%B5%E6%94%BF</t>
   </si>
   <si>
-    <t>香港郵政</t>
+    <t>香港邮政</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E5%A4%A7%E5%B0%88%E9%99%A2%E6%A0%A1</t>
   </si>
   <si>
-    <t>香港大專院校</t>
+    <t>香港大专院校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%83%85%E4%BE%B6</t>
   </si>
   <si>
-    <t>情侶</t>
+    <t>情侣</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E6%83%85</t>
   </si>
   <si>
-    <t>愛情</t>
+    <t>爱情</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%83%85%E4%BA%BA%E7%AF%80</t>
   </si>
   <si>
-    <t>情人節</t>
+    <t>情人节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E7%92%B0</t>
   </si>
   <si>
-    <t>路環</t>
+    <t>路环</t>
   </si>
   <si>
     <t>https://pt.wikipedia.org/wiki/Capela_de_S%C3%A3o_Francisco_Xavier_(Macau)</t>
@@ -1661,7 +1628,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80</t>
   </si>
   <si>
-    <t>澳門</t>
+    <t>澳门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99</t>
@@ -1673,19 +1640,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80%E5%85%AC%E7%9C%BE%E5%81%87%E6%9C%9F</t>
   </si>
   <si>
-    <t>澳門公眾假期</t>
+    <t>澳门公众假期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80%E5%8D%9A%E5%BD%A9%E6%A5%AD</t>
   </si>
   <si>
-    <t>澳門博彩業</t>
+    <t>澳门博彩业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%8D%E5%8B%99%E6%A5%AD</t>
   </si>
   <si>
-    <t>服務業</t>
+    <t>服务业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B6%E5%94%AE%E4%B8%9A</t>
@@ -1697,13 +1664,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E9%99%B8</t>
   </si>
   <si>
-    <t>歐陸</t>
+    <t>欧陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E4%BA%8B%E4%BA%AD%E5%89%8D%E5%9C%B0</t>
   </si>
   <si>
-    <t>議事亭前地</t>
+    <t>议事亭前地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%B8%89%E5%B7%B4%E7%89%8C%E5%9D%8A</t>
@@ -1715,25 +1682,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8F%A3%E5%B2%B8%E6%96%B0%E5%A1%AB%E6%B5%B7%E5%8D%80</t>
   </si>
   <si>
-    <t>新口岸新填海區</t>
+    <t>新口岸新填海区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E7%9F%B3%E5%BB%A3%E5%A0%B4</t>
   </si>
   <si>
-    <t>塔石廣場</t>
+    <t>塔石广场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%81%A3%E6%B9%96%E5%BB%A3%E5%A0%B4</t>
   </si>
   <si>
-    <t>南灣湖廣場</t>
+    <t>南湾湖广场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80%E6%BC%81%E4%BA%BA%E7%A2%BC%E9%A0%AD</t>
   </si>
   <si>
-    <t>澳門漁人碼頭</t>
+    <t>澳门渔人码头</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%95%99%E5%BA%A7%E5%A0%82</t>
@@ -1745,43 +1712,37 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E5%8C%97%E8%BB%8A%E7%AB%99</t>
   </si>
   <si>
-    <t>臺北車站</t>
+    <t>台北车站</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%8C%E6%92%92</t>
   </si>
   <si>
-    <t>彌撒</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%AE%E7%89%A9</t>
   </si>
   <si>
-    <t>禮物</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%80%E5%8D%A1</t>
   </si>
   <si>
-    <t>賀卡</t>
+    <t>贺卡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E7%AF%80%E6%97%A5</t>
   </si>
   <si>
-    <t>臺灣節日</t>
+    <t>台湾节日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E6%86%B2%E6%B3%95</t>
   </si>
   <si>
-    <t>中華民國憲法</t>
+    <t>中华民国宪法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>中華民國政府</t>
+    <t>中华民国政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E5%A4%A9%E5%B7%A5%E4%BD%9C%E5%88%B6</t>
@@ -1799,19 +1760,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>中華民國總統</t>
+    <t>中华民国总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%B3%E6%B0%B4%E6%89%81</t>
   </si>
   <si>
-    <t>陳水扁</t>
+    <t>陈水扁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
   </si>
   <si>
-    <t>梵蒂岡</t>
+    <t>梵蒂冈</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%B6%E7%84%B6</t>
@@ -1823,19 +1784,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A8%9E%E6%A9%9F</t>
   </si>
   <si>
-    <t>樞機</t>
+    <t>枢机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%EF%BC%8D%E8%81%96%E5%BA%A7%E9%97%9C%E4%BF%82</t>
   </si>
   <si>
-    <t>中華民國－聖座關係</t>
+    <t>中华民国－圣座关系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E8%AA%95</t>
   </si>
   <si>
-    <t>佛誕</t>
+    <t>佛诞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/FamilyMart</t>
@@ -1847,9 +1808,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%A4%A7%E9%99%86</t>
   </si>
   <si>
-    <t>中国大陆</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E8%8A%82%E6%97%A5%E4%B8%8E%E5%85%AC%E4%BC%97%E5%81%87%E6%9C%9F</t>
   </si>
   <si>
@@ -1859,9 +1817,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%B9%E9%9D%A9%E5%BC%80%E6%94%BE</t>
   </si>
   <si>
-    <t>改革开放</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E5%9C%88</t>
   </si>
   <si>
@@ -1871,9 +1826,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%8B%E6%9E%9C</t>
   </si>
   <si>
-    <t>蘋果</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%83</t>
   </si>
   <si>
@@ -1949,7 +1901,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E7%AF%80%E6%97%A5</t>
   </si>
   <si>
-    <t>日本節日</t>
+    <t>日本节日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%92%E5%81%87</t>
@@ -1979,19 +1931,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E7%9A%87%E8%AA%95%E7%94%9F%E6%97%A5</t>
   </si>
   <si>
-    <t>天皇誕生日</t>
+    <t>天皇诞生日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E5%9C%8B%E6%86%B2%E6%B3%95</t>
   </si>
   <si>
-    <t>日本國憲法</t>
+    <t>日本国宪法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%95%99%E5%88%86%E9%9B%A2</t>
   </si>
   <si>
-    <t>政教分離</t>
+    <t>政教分离</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E6%B3%95%E5%BE%8B</t>
@@ -2009,13 +1961,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%82%B8%E9%9B%9E</t>
   </si>
   <si>
-    <t>炸雞</t>
+    <t>炸鸡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%85%E9%A4%A8</t>
   </si>
   <si>
-    <t>旅館</t>
+    <t>旅馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E5%A0%82</t>
@@ -2033,13 +1985,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%9C%B0%E8%AA%9E</t>
   </si>
   <si>
-    <t>印地語</t>
+    <t>印地语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93</t>
   </si>
   <si>
-    <t>菲律賓</t>
+    <t>菲律宾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E4%B8%B9%E5%A5%B6%E9%85%AA</t>
@@ -2099,13 +2051,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B9%AF%C2%B7%E6%BC%A2%E6%96%AF</t>
   </si>
   <si>
-    <t>湯·漢斯</t>
+    <t>汤·汉斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%93%8B%E8%8C%A8</t>
   </si>
   <si>
-    <t>蓋茨</t>
+    <t>盖茨</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%96%B0%E5%86%9B%E5%9B%A2%E6%97%A5</t>
@@ -2117,7 +2069,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E8%A9%B1%E6%95%85%E4%BA%8B</t>
   </si>
   <si>
-    <t>神話故事</t>
+    <t>神话故事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%87%E8%BF%B9</t>
@@ -2147,7 +2099,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E6%B0%A3%E8%B2%A1%E7%A5%9E</t>
   </si>
   <si>
-    <t>小氣財神</t>
+    <t>小气财神</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Ebenezer_Scrooge</t>
@@ -2177,7 +2129,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E6%96%AF%C2%B7%E5%85%8B%E9%87%8C%E6%96%AF%E8%92%82%E5%AE%89%C2%B7%E5%AE%89%E5%BE%92%E7%94%9F</t>
   </si>
   <si>
-    <t>漢斯·克里斯蒂安·安徒生</t>
+    <t>汉斯·克里斯蒂安·安徒生</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%85%97%E9%85%92</t>
@@ -2243,7 +2195,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%86%82%E9%AC%B1%E7%97%87</t>
   </si>
   <si>
-    <t>憂鬱症</t>
+    <t>忧郁症</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E6%9D%80</t>
@@ -2309,7 +2261,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%8E%E6%A0%BC%E9%AD%AF-%E6%92%92%E5%85%8B%E9%81%9C%E4%BA%BA</t>
   </si>
   <si>
-    <t>盎格魯-撒克遜人</t>
+    <t>盎格鲁-撒克逊人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97%E4%BA%BA</t>
@@ -2375,13 +2327,10 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E4%BC%9A%E5%B9%B4%E5%8E%86</t>
   </si>
   <si>
-    <t>教会年历</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E6%AF%8D%E7%84%A1%E6%9F%93%E5%8E%9F%E7%BD%AA%E7%9E%BB%E7%A6%AE</t>
   </si>
   <si>
-    <t>聖母無染原罪瞻禮</t>
+    <t>圣母无染原罪瞻礼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%AE%B6</t>
@@ -2393,7 +2342,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%B8%BB%E4%B9%8B%E6%AF%8D%E7%AF%80</t>
   </si>
   <si>
-    <t>天主之母節</t>
+    <t>天主之母节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%B8%E5%B9%B4%E6%9C%9F</t>
@@ -2411,25 +2360,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8B%A5%E7%91%9F%E7%9E%BB%E7%A6%AE</t>
   </si>
   <si>
-    <t>聖若瑟瞻禮</t>
+    <t>圣若瑟瞻礼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%82%E6%AD%A1%E7%AF%80</t>
   </si>
   <si>
-    <t>狂歡節</t>
+    <t>狂欢节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%BD%8B%E6%9C%9F</t>
   </si>
   <si>
-    <t>大齋期</t>
+    <t>大斋期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%BD%8B%E9%A6%96%E6%97%A5</t>
   </si>
   <si>
-    <t>大齋首日</t>
+    <t>大斋首日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%91%A8</t>
@@ -2447,25 +2396,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BF%AF%E8%B6%B3%E7%AF%80</t>
   </si>
   <si>
-    <t>濯足節</t>
+    <t>濯足节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%BE%E8%B6%8A%E7%AF%80%E4%B8%89%E6%97%A5%E6%85%B6%E5%85%B8</t>
   </si>
   <si>
-    <t>逾越節三日慶典</t>
+    <t>逾越节三日庆典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E7%9A%84%E6%99%9A%E9%A4%90%E5%BD%8C%E6%92%92</t>
   </si>
   <si>
-    <t>主的晚餐彌撒</t>
+    <t>主的晚餐弥撒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%80%B1%E4%BA%94</t>
   </si>
   <si>
-    <t>聖週五</t>
+    <t>圣周五</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%A6%E8%B7%AF</t>
@@ -2477,13 +2426,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%A4%90%E7%A6%AE</t>
   </si>
   <si>
-    <t>聖餐禮</t>
+    <t>圣餐礼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%80%B1%E5%85%AD</t>
   </si>
   <si>
-    <t>聖週六</t>
+    <t>圣周六</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Eastertide</t>
@@ -2501,55 +2450,55 @@
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E7%A9%8C%E5%8D%87%E5%A4%A9%E7%AF%80</t>
   </si>
   <si>
-    <t>耶穌升天節</t>
+    <t>耶稣升天节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E6%97%AC%E7%AF%80</t>
   </si>
   <si>
-    <t>五旬節</t>
+    <t>五旬节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E4%B8%89%E4%B8%80%E4%B8%BB%E6%97%A5</t>
   </si>
   <si>
-    <t>聖三一主日</t>
+    <t>圣三一主日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E8%81%96%E9%AB%94%E8%81%96%E8%A1%80%E7%AF%80</t>
   </si>
   <si>
-    <t>基督聖體聖血節</t>
+    <t>基督圣体圣血节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E7%A9%8C%E8%81%96%E5%BF%83</t>
   </si>
   <si>
-    <t>耶穌聖心</t>
+    <t>耶稣圣心</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E6%AF%8D%E8%A8%AA%E8%A6%AA</t>
   </si>
   <si>
-    <t>聖母訪親</t>
+    <t>圣母访亲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E6%AF%8D%E8%92%99%E5%8F%AC%E5%8D%87%E5%A4%A9%E7%AF%80</t>
   </si>
   <si>
-    <t>聖母蒙召升天節</t>
+    <t>圣母蒙召升天节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%B8%E8%81%96%E7%AF%80</t>
   </si>
   <si>
-    <t>諸聖節</t>
+    <t>诸圣节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%B8%E9%9D%88%E7%AF%80</t>
   </si>
   <si>
-    <t>諸靈節</t>
+    <t>诸灵节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%99%AE%E4%B8%96%E5%90%9B%E7%8E%8B%E8%8A%82</t>
@@ -2561,7 +2510,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%A9%E6%B4%BB%E7%AF%80%E8%A8%88%E7%AE%97%E8%A1%A8%E5%86%8A</t>
   </si>
   <si>
-    <t>復活節計算表冊</t>
+    <t>复活节计算表册</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%82%E6%97%A5_(%E5%A4%A9%E4%B8%BB%E6%95%99)</t>
@@ -2579,15 +2528,12 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9E%E6%97%A5</t>
   </si>
   <si>
-    <t>澳大利亞日</t>
+    <t>澳大利亚日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%91%A8%E5%85%AD</t>
   </si>
   <si>
-    <t>圣周六</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8D%E6%B4%BB%E8%8A%82%E6%98%9F%E6%9C%9F%E4%B8%80</t>
   </si>
   <si>
@@ -2621,19 +2567,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%A4%9A%E5%88%A9%E4%BA%9E%E6%97%A5</t>
   </si>
   <si>
-    <t>維多利亞日</t>
+    <t>维多利亚日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%AE%A4%E7%B4%80%E5%BF%B5%E6%97%A5</t>
   </si>
   <si>
-    <t>國殤紀念日</t>
+    <t>国殇纪念日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9C%8B%E7%AF%80%E6%97%A5</t>
   </si>
   <si>
-    <t>Template talk-美國節日</t>
+    <t>Template talk-美国节日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%8A%82%E6%97%A5</t>
@@ -2681,7 +2627,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%81%B0%E6%98%9F%E6%9C%9F%E4%B8%89</t>
   </si>
   <si>
-    <t>聖灰星期三</t>
+    <t>圣灰星期三</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%92%E7%81%AF%E8%8A%82</t>
@@ -2693,9 +2639,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8D%E6%B4%BB%E8%8A%82</t>
   </si>
   <si>
-    <t>复活节</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%A9%E9%A7%84%E6%91%A9%E9%82%A3</t>
   </si>
   <si>
@@ -2705,7 +2648,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%87%BA%E6%82%94%E6%98%9F%E6%9C%9F%E4%BA%8C</t>
   </si>
   <si>
-    <t>懺悔星期二</t>
+    <t>忏悔星期二</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%BE%E8%B6%8A%E8%8A%82</t>
@@ -2729,9 +2672,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%8B%A5%E7%91%9F%E7%9E%BB%E7%A4%BC</t>
   </si>
   <si>
-    <t>圣若瑟瞻礼</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%B8%95%E7%89%B9%E9%87%8C%E5%85%8B%E8%8A%82</t>
   </si>
   <si>
@@ -2741,9 +2681,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%83%85%E4%BA%BA%E8%8A%82</t>
   </si>
   <si>
-    <t>情人节</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%8E%E7%BD%AA%E6%97%A5</t>
   </si>
   <si>
@@ -2753,9 +2690,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E8%8A%82%E6%97%A5%E4%B8%8E%E5%85%AC%E4%BC%97%E5%81%87%E6%9C%9F</t>
   </si>
   <si>
-    <t>香港节日与公众假期</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E6%98%8E%E8%8A%82</t>
   </si>
   <si>
@@ -2765,25 +2699,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E7%A9%8C%E5%8F%97%E9%9B%A3%E7%AF%80</t>
   </si>
   <si>
-    <t>耶穌受難節</t>
+    <t>耶稣受难节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E7%AB%AF%E5%8D%88%E7%AF%80</t>
   </si>
   <si>
-    <t>中華端午節</t>
+    <t>中华端午节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E7%89%B9%E5%88%A5%E8%A1%8C%E6%94%BF%E5%8D%80%E6%88%90%E7%AB%8B%E7%B4%80%E5%BF%B5%E6%97%A5</t>
   </si>
   <si>
-    <t>香港特別行政區成立紀念日</t>
+    <t>香港特别行政区成立纪念日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%A7%8B%E7%AF%80_(%E8%8F%AF%E4%BA%BA)</t>
   </si>
   <si>
-    <t>中秋節 (華人)</t>
+    <t>中秋节 (华人)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%9B%BD%E5%BA%86%E8%8A%82</t>
@@ -2813,13 +2747,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%AE%89%E5%BE%B7%E9%AD%AF%E6%97%A5</t>
   </si>
   <si>
-    <t>聖安德魯日</t>
+    <t>圣安德鲁日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
@@ -2837,7 +2771,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -2849,13 +2783,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
   </si>
   <si>
-    <t>瑞士歷史辭典</t>
+    <t>瑞士历史辞典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%AF%9E%E8%8A%82</t>
@@ -4076,7 +4010,7 @@
         <v>55</v>
       </c>
       <c r="F30" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G30" t="n">
         <v>17</v>
@@ -4102,10 +4036,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" t="s">
         <v>57</v>
-      </c>
-      <c r="F31" t="s">
-        <v>58</v>
       </c>
       <c r="G31" t="n">
         <v>2</v>
@@ -4131,10 +4065,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" t="s">
         <v>59</v>
-      </c>
-      <c r="F32" t="s">
-        <v>60</v>
       </c>
       <c r="G32" t="n">
         <v>2</v>
@@ -4160,10 +4094,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" t="s">
         <v>61</v>
-      </c>
-      <c r="F33" t="s">
-        <v>62</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -4189,10 +4123,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34" t="s">
         <v>63</v>
-      </c>
-      <c r="F34" t="s">
-        <v>64</v>
       </c>
       <c r="G34" t="n">
         <v>18</v>
@@ -4218,10 +4152,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>64</v>
+      </c>
+      <c r="F35" t="s">
         <v>65</v>
-      </c>
-      <c r="F35" t="s">
-        <v>66</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -4247,10 +4181,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>66</v>
+      </c>
+      <c r="F36" t="s">
         <v>67</v>
-      </c>
-      <c r="F36" t="s">
-        <v>68</v>
       </c>
       <c r="G36" t="n">
         <v>2</v>
@@ -4276,10 +4210,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>68</v>
+      </c>
+      <c r="F37" t="s">
         <v>69</v>
-      </c>
-      <c r="F37" t="s">
-        <v>70</v>
       </c>
       <c r="G37" t="n">
         <v>9</v>
@@ -4305,10 +4239,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>70</v>
+      </c>
+      <c r="F38" t="s">
         <v>71</v>
-      </c>
-      <c r="F38" t="s">
-        <v>72</v>
       </c>
       <c r="G38" t="n">
         <v>3</v>
@@ -4334,10 +4268,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>72</v>
+      </c>
+      <c r="F39" t="s">
         <v>73</v>
-      </c>
-      <c r="F39" t="s">
-        <v>74</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -4363,10 +4297,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>74</v>
+      </c>
+      <c r="F40" t="s">
         <v>75</v>
-      </c>
-      <c r="F40" t="s">
-        <v>76</v>
       </c>
       <c r="G40" t="n">
         <v>3</v>
@@ -4392,10 +4326,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>76</v>
+      </c>
+      <c r="F41" t="s">
         <v>77</v>
-      </c>
-      <c r="F41" t="s">
-        <v>78</v>
       </c>
       <c r="G41" t="n">
         <v>2</v>
@@ -4421,10 +4355,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>78</v>
+      </c>
+      <c r="F42" t="s">
         <v>79</v>
-      </c>
-      <c r="F42" t="s">
-        <v>80</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -4450,10 +4384,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>80</v>
+      </c>
+      <c r="F43" t="s">
         <v>81</v>
-      </c>
-      <c r="F43" t="s">
-        <v>82</v>
       </c>
       <c r="G43" t="n">
         <v>6</v>
@@ -4479,10 +4413,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>82</v>
+      </c>
+      <c r="F44" t="s">
         <v>83</v>
-      </c>
-      <c r="F44" t="s">
-        <v>84</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -4508,10 +4442,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>84</v>
+      </c>
+      <c r="F45" t="s">
         <v>85</v>
-      </c>
-      <c r="F45" t="s">
-        <v>86</v>
       </c>
       <c r="G45" t="n">
         <v>2</v>
@@ -4537,10 +4471,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>86</v>
+      </c>
+      <c r="F46" t="s">
         <v>87</v>
-      </c>
-      <c r="F46" t="s">
-        <v>88</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -4566,10 +4500,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>88</v>
+      </c>
+      <c r="F47" t="s">
         <v>89</v>
-      </c>
-      <c r="F47" t="s">
-        <v>90</v>
       </c>
       <c r="G47" t="n">
         <v>2</v>
@@ -4595,10 +4529,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>90</v>
+      </c>
+      <c r="F48" t="s">
         <v>91</v>
-      </c>
-      <c r="F48" t="s">
-        <v>92</v>
       </c>
       <c r="G48" t="n">
         <v>7</v>
@@ -4624,10 +4558,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>92</v>
+      </c>
+      <c r="F49" t="s">
         <v>93</v>
-      </c>
-      <c r="F49" t="s">
-        <v>94</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -4653,10 +4587,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>94</v>
+      </c>
+      <c r="F50" t="s">
         <v>95</v>
-      </c>
-      <c r="F50" t="s">
-        <v>96</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -4682,10 +4616,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>96</v>
+      </c>
+      <c r="F51" t="s">
         <v>97</v>
-      </c>
-      <c r="F51" t="s">
-        <v>98</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -4711,10 +4645,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>98</v>
+      </c>
+      <c r="F52" t="s">
         <v>99</v>
-      </c>
-      <c r="F52" t="s">
-        <v>100</v>
       </c>
       <c r="G52" t="n">
         <v>5</v>
@@ -4740,10 +4674,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>100</v>
+      </c>
+      <c r="F53" t="s">
         <v>101</v>
-      </c>
-      <c r="F53" t="s">
-        <v>102</v>
       </c>
       <c r="G53" t="n">
         <v>2</v>
@@ -4769,10 +4703,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>102</v>
+      </c>
+      <c r="F54" t="s">
         <v>103</v>
-      </c>
-      <c r="F54" t="s">
-        <v>104</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -4798,10 +4732,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>104</v>
+      </c>
+      <c r="F55" t="s">
         <v>105</v>
-      </c>
-      <c r="F55" t="s">
-        <v>106</v>
       </c>
       <c r="G55" t="n">
         <v>2</v>
@@ -4827,10 +4761,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>106</v>
+      </c>
+      <c r="F56" t="s">
         <v>107</v>
-      </c>
-      <c r="F56" t="s">
-        <v>108</v>
       </c>
       <c r="G56" t="n">
         <v>4</v>
@@ -4856,10 +4790,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>108</v>
+      </c>
+      <c r="F57" t="s">
         <v>109</v>
-      </c>
-      <c r="F57" t="s">
-        <v>110</v>
       </c>
       <c r="G57" t="n">
         <v>58</v>
@@ -4885,10 +4819,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>110</v>
+      </c>
+      <c r="F58" t="s">
         <v>111</v>
-      </c>
-      <c r="F58" t="s">
-        <v>112</v>
       </c>
       <c r="G58" t="n">
         <v>4</v>
@@ -4914,10 +4848,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>112</v>
+      </c>
+      <c r="F59" t="s">
         <v>113</v>
-      </c>
-      <c r="F59" t="s">
-        <v>114</v>
       </c>
       <c r="G59" t="n">
         <v>2</v>
@@ -4943,10 +4877,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>114</v>
+      </c>
+      <c r="F60" t="s">
         <v>115</v>
-      </c>
-      <c r="F60" t="s">
-        <v>116</v>
       </c>
       <c r="G60" t="n">
         <v>5</v>
@@ -4972,10 +4906,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>116</v>
+      </c>
+      <c r="F61" t="s">
         <v>117</v>
-      </c>
-      <c r="F61" t="s">
-        <v>118</v>
       </c>
       <c r="G61" t="n">
         <v>3</v>
@@ -5001,10 +4935,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>118</v>
+      </c>
+      <c r="F62" t="s">
         <v>119</v>
-      </c>
-      <c r="F62" t="s">
-        <v>120</v>
       </c>
       <c r="G62" t="n">
         <v>2</v>
@@ -5030,10 +4964,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>120</v>
+      </c>
+      <c r="F63" t="s">
         <v>121</v>
-      </c>
-      <c r="F63" t="s">
-        <v>122</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -5059,10 +4993,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>122</v>
+      </c>
+      <c r="F64" t="s">
         <v>123</v>
-      </c>
-      <c r="F64" t="s">
-        <v>124</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -5088,10 +5022,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>124</v>
+      </c>
+      <c r="F65" t="s">
         <v>125</v>
-      </c>
-      <c r="F65" t="s">
-        <v>126</v>
       </c>
       <c r="G65" t="n">
         <v>2</v>
@@ -5117,10 +5051,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>126</v>
+      </c>
+      <c r="F66" t="s">
         <v>127</v>
-      </c>
-      <c r="F66" t="s">
-        <v>128</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -5146,10 +5080,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>128</v>
+      </c>
+      <c r="F67" t="s">
         <v>129</v>
-      </c>
-      <c r="F67" t="s">
-        <v>130</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -5175,10 +5109,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>130</v>
+      </c>
+      <c r="F68" t="s">
         <v>131</v>
-      </c>
-      <c r="F68" t="s">
-        <v>132</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -5204,10 +5138,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>132</v>
+      </c>
+      <c r="F69" t="s">
         <v>133</v>
-      </c>
-      <c r="F69" t="s">
-        <v>134</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -5233,10 +5167,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>134</v>
+      </c>
+      <c r="F70" t="s">
         <v>135</v>
-      </c>
-      <c r="F70" t="s">
-        <v>136</v>
       </c>
       <c r="G70" t="n">
         <v>3</v>
@@ -5262,10 +5196,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>136</v>
+      </c>
+      <c r="F71" t="s">
         <v>137</v>
-      </c>
-      <c r="F71" t="s">
-        <v>138</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -5291,10 +5225,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>138</v>
+      </c>
+      <c r="F72" t="s">
         <v>139</v>
-      </c>
-      <c r="F72" t="s">
-        <v>140</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -5320,10 +5254,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>140</v>
+      </c>
+      <c r="F73" t="s">
         <v>141</v>
-      </c>
-      <c r="F73" t="s">
-        <v>142</v>
       </c>
       <c r="G73" t="n">
         <v>2</v>
@@ -5349,10 +5283,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>142</v>
+      </c>
+      <c r="F74" t="s">
         <v>143</v>
-      </c>
-      <c r="F74" t="s">
-        <v>144</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -5378,10 +5312,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>144</v>
+      </c>
+      <c r="F75" t="s">
         <v>145</v>
-      </c>
-      <c r="F75" t="s">
-        <v>146</v>
       </c>
       <c r="G75" t="n">
         <v>8</v>
@@ -5407,10 +5341,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>146</v>
+      </c>
+      <c r="F76" t="s">
         <v>147</v>
-      </c>
-      <c r="F76" t="s">
-        <v>148</v>
       </c>
       <c r="G76" t="n">
         <v>4</v>
@@ -5436,10 +5370,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>148</v>
+      </c>
+      <c r="F77" t="s">
         <v>149</v>
-      </c>
-      <c r="F77" t="s">
-        <v>150</v>
       </c>
       <c r="G77" t="n">
         <v>2</v>
@@ -5465,10 +5399,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>150</v>
+      </c>
+      <c r="F78" t="s">
         <v>151</v>
-      </c>
-      <c r="F78" t="s">
-        <v>152</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -5494,10 +5428,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>152</v>
+      </c>
+      <c r="F79" t="s">
         <v>153</v>
-      </c>
-      <c r="F79" t="s">
-        <v>154</v>
       </c>
       <c r="G79" t="n">
         <v>2</v>
@@ -5523,10 +5457,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>154</v>
+      </c>
+      <c r="F80" t="s">
         <v>155</v>
-      </c>
-      <c r="F80" t="s">
-        <v>156</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -5552,10 +5486,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>156</v>
+      </c>
+      <c r="F81" t="s">
         <v>157</v>
-      </c>
-      <c r="F81" t="s">
-        <v>158</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -5581,10 +5515,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>158</v>
+      </c>
+      <c r="F82" t="s">
         <v>159</v>
-      </c>
-      <c r="F82" t="s">
-        <v>160</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -5610,10 +5544,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>160</v>
+      </c>
+      <c r="F83" t="s">
         <v>161</v>
-      </c>
-      <c r="F83" t="s">
-        <v>162</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -5639,10 +5573,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>162</v>
+      </c>
+      <c r="F84" t="s">
         <v>163</v>
-      </c>
-      <c r="F84" t="s">
-        <v>164</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -5668,10 +5602,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>164</v>
+      </c>
+      <c r="F85" t="s">
         <v>165</v>
-      </c>
-      <c r="F85" t="s">
-        <v>166</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -5697,10 +5631,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>166</v>
+      </c>
+      <c r="F86" t="s">
         <v>167</v>
-      </c>
-      <c r="F86" t="s">
-        <v>168</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -5726,10 +5660,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>168</v>
+      </c>
+      <c r="F87" t="s">
         <v>169</v>
-      </c>
-      <c r="F87" t="s">
-        <v>170</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -5755,10 +5689,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>170</v>
+      </c>
+      <c r="F88" t="s">
         <v>171</v>
-      </c>
-      <c r="F88" t="s">
-        <v>172</v>
       </c>
       <c r="G88" t="n">
         <v>7</v>
@@ -5784,10 +5718,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>172</v>
+      </c>
+      <c r="F89" t="s">
         <v>173</v>
-      </c>
-      <c r="F89" t="s">
-        <v>174</v>
       </c>
       <c r="G89" t="n">
         <v>5</v>
@@ -5813,10 +5747,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>174</v>
+      </c>
+      <c r="F90" t="s">
         <v>175</v>
-      </c>
-      <c r="F90" t="s">
-        <v>176</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -5842,10 +5776,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>176</v>
+      </c>
+      <c r="F91" t="s">
         <v>177</v>
-      </c>
-      <c r="F91" t="s">
-        <v>178</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -5871,10 +5805,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>178</v>
+      </c>
+      <c r="F92" t="s">
         <v>179</v>
-      </c>
-      <c r="F92" t="s">
-        <v>180</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -5900,10 +5834,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>180</v>
+      </c>
+      <c r="F93" t="s">
         <v>181</v>
-      </c>
-      <c r="F93" t="s">
-        <v>182</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -5929,10 +5863,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>182</v>
+      </c>
+      <c r="F94" t="s">
         <v>183</v>
-      </c>
-      <c r="F94" t="s">
-        <v>184</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -5958,10 +5892,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>184</v>
+      </c>
+      <c r="F95" t="s">
         <v>185</v>
-      </c>
-      <c r="F95" t="s">
-        <v>186</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -5987,10 +5921,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>186</v>
+      </c>
+      <c r="F96" t="s">
         <v>187</v>
-      </c>
-      <c r="F96" t="s">
-        <v>188</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -6016,10 +5950,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>188</v>
+      </c>
+      <c r="F97" t="s">
         <v>189</v>
-      </c>
-      <c r="F97" t="s">
-        <v>190</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -6045,10 +5979,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>190</v>
+      </c>
+      <c r="F98" t="s">
         <v>191</v>
-      </c>
-      <c r="F98" t="s">
-        <v>192</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -6074,10 +6008,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>192</v>
+      </c>
+      <c r="F99" t="s">
         <v>193</v>
-      </c>
-      <c r="F99" t="s">
-        <v>194</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -6103,10 +6037,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>194</v>
+      </c>
+      <c r="F100" t="s">
         <v>195</v>
-      </c>
-      <c r="F100" t="s">
-        <v>196</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -6132,10 +6066,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>196</v>
+      </c>
+      <c r="F101" t="s">
         <v>197</v>
-      </c>
-      <c r="F101" t="s">
-        <v>198</v>
       </c>
       <c r="G101" t="n">
         <v>3</v>
@@ -6161,10 +6095,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>198</v>
+      </c>
+      <c r="F102" t="s">
         <v>199</v>
-      </c>
-      <c r="F102" t="s">
-        <v>200</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -6190,10 +6124,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>200</v>
+      </c>
+      <c r="F103" t="s">
         <v>201</v>
-      </c>
-      <c r="F103" t="s">
-        <v>202</v>
       </c>
       <c r="G103" t="n">
         <v>2</v>
@@ -6219,10 +6153,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>202</v>
+      </c>
+      <c r="F104" t="s">
         <v>203</v>
-      </c>
-      <c r="F104" t="s">
-        <v>204</v>
       </c>
       <c r="G104" t="n">
         <v>2</v>
@@ -6248,10 +6182,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>204</v>
+      </c>
+      <c r="F105" t="s">
         <v>205</v>
-      </c>
-      <c r="F105" t="s">
-        <v>206</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -6277,10 +6211,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>206</v>
+      </c>
+      <c r="F106" t="s">
         <v>207</v>
-      </c>
-      <c r="F106" t="s">
-        <v>208</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -6306,10 +6240,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>208</v>
+      </c>
+      <c r="F107" t="s">
         <v>209</v>
-      </c>
-      <c r="F107" t="s">
-        <v>210</v>
       </c>
       <c r="G107" t="n">
         <v>3</v>
@@ -6335,10 +6269,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>210</v>
+      </c>
+      <c r="F108" t="s">
         <v>211</v>
-      </c>
-      <c r="F108" t="s">
-        <v>212</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -6364,10 +6298,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>212</v>
+      </c>
+      <c r="F109" t="s">
         <v>213</v>
-      </c>
-      <c r="F109" t="s">
-        <v>214</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -6393,10 +6327,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>214</v>
+      </c>
+      <c r="F110" t="s">
         <v>215</v>
-      </c>
-      <c r="F110" t="s">
-        <v>216</v>
       </c>
       <c r="G110" t="n">
         <v>3</v>
@@ -6422,10 +6356,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>216</v>
+      </c>
+      <c r="F111" t="s">
         <v>217</v>
-      </c>
-      <c r="F111" t="s">
-        <v>218</v>
       </c>
       <c r="G111" t="n">
         <v>2</v>
@@ -6480,10 +6414,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>218</v>
+      </c>
+      <c r="F113" t="s">
         <v>219</v>
-      </c>
-      <c r="F113" t="s">
-        <v>220</v>
       </c>
       <c r="G113" t="n">
         <v>9</v>
@@ -6509,10 +6443,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>220</v>
+      </c>
+      <c r="F114" t="s">
         <v>221</v>
-      </c>
-      <c r="F114" t="s">
-        <v>222</v>
       </c>
       <c r="G114" t="n">
         <v>3</v>
@@ -6538,10 +6472,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>222</v>
+      </c>
+      <c r="F115" t="s">
         <v>223</v>
-      </c>
-      <c r="F115" t="s">
-        <v>224</v>
       </c>
       <c r="G115" t="n">
         <v>2</v>
@@ -6567,10 +6501,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>224</v>
+      </c>
+      <c r="F116" t="s">
         <v>225</v>
-      </c>
-      <c r="F116" t="s">
-        <v>226</v>
       </c>
       <c r="G116" t="n">
         <v>44</v>
@@ -6596,10 +6530,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>226</v>
+      </c>
+      <c r="F117" t="s">
         <v>227</v>
-      </c>
-      <c r="F117" t="s">
-        <v>228</v>
       </c>
       <c r="G117" t="n">
         <v>13</v>
@@ -6625,10 +6559,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>228</v>
+      </c>
+      <c r="F118" t="s">
         <v>229</v>
-      </c>
-      <c r="F118" t="s">
-        <v>230</v>
       </c>
       <c r="G118" t="n">
         <v>5</v>
@@ -6654,10 +6588,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>230</v>
+      </c>
+      <c r="F119" t="s">
         <v>231</v>
-      </c>
-      <c r="F119" t="s">
-        <v>232</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -6683,10 +6617,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>232</v>
+      </c>
+      <c r="F120" t="s">
         <v>233</v>
-      </c>
-      <c r="F120" t="s">
-        <v>234</v>
       </c>
       <c r="G120" t="n">
         <v>2</v>
@@ -6712,10 +6646,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>234</v>
+      </c>
+      <c r="F121" t="s">
         <v>235</v>
-      </c>
-      <c r="F121" t="s">
-        <v>236</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -6741,10 +6675,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>236</v>
+      </c>
+      <c r="F122" t="s">
         <v>237</v>
-      </c>
-      <c r="F122" t="s">
-        <v>238</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -6770,10 +6704,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>238</v>
+      </c>
+      <c r="F123" t="s">
         <v>239</v>
-      </c>
-      <c r="F123" t="s">
-        <v>240</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -6799,10 +6733,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>240</v>
+      </c>
+      <c r="F124" t="s">
         <v>241</v>
-      </c>
-      <c r="F124" t="s">
-        <v>242</v>
       </c>
       <c r="G124" t="n">
         <v>2</v>
@@ -6828,10 +6762,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>242</v>
+      </c>
+      <c r="F125" t="s">
         <v>243</v>
-      </c>
-      <c r="F125" t="s">
-        <v>244</v>
       </c>
       <c r="G125" t="n">
         <v>3</v>
@@ -6857,10 +6791,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>244</v>
+      </c>
+      <c r="F126" t="s">
         <v>245</v>
-      </c>
-      <c r="F126" t="s">
-        <v>246</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -6886,10 +6820,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>246</v>
+      </c>
+      <c r="F127" t="s">
         <v>247</v>
-      </c>
-      <c r="F127" t="s">
-        <v>248</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -6915,10 +6849,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>248</v>
+      </c>
+      <c r="F128" t="s">
         <v>249</v>
-      </c>
-      <c r="F128" t="s">
-        <v>250</v>
       </c>
       <c r="G128" t="n">
         <v>4</v>
@@ -6944,10 +6878,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>250</v>
+      </c>
+      <c r="F129" t="s">
         <v>251</v>
-      </c>
-      <c r="F129" t="s">
-        <v>252</v>
       </c>
       <c r="G129" t="n">
         <v>30</v>
@@ -6973,10 +6907,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>252</v>
+      </c>
+      <c r="F130" t="s">
         <v>253</v>
-      </c>
-      <c r="F130" t="s">
-        <v>254</v>
       </c>
       <c r="G130" t="n">
         <v>4</v>
@@ -7002,10 +6936,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>254</v>
+      </c>
+      <c r="F131" t="s">
         <v>255</v>
-      </c>
-      <c r="F131" t="s">
-        <v>256</v>
       </c>
       <c r="G131" t="n">
         <v>8</v>
@@ -7031,10 +6965,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F132" t="s">
-        <v>258</v>
+        <v>95</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -7060,10 +6994,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F133" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -7089,10 +7023,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F134" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G134" t="n">
         <v>21</v>
@@ -7118,10 +7052,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F135" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G135" t="n">
         <v>2</v>
@@ -7147,10 +7081,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F136" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G136" t="n">
         <v>5</v>
@@ -7176,10 +7110,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F137" t="s">
-        <v>268</v>
+        <v>129</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -7205,10 +7139,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F138" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -7234,10 +7168,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F139" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -7263,10 +7197,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F140" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -7292,10 +7226,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F141" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G141" t="n">
         <v>2</v>
@@ -7321,10 +7255,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F142" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -7350,10 +7284,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F143" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G143" t="n">
         <v>3</v>
@@ -7379,10 +7313,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F144" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -7408,10 +7342,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F145" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -7437,10 +7371,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F146" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -7466,10 +7400,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F147" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -7495,10 +7429,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F148" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G148" t="n">
         <v>4</v>
@@ -7524,10 +7458,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F149" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -7553,10 +7487,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F150" t="s">
-        <v>294</v>
+        <v>219</v>
       </c>
       <c r="G150" t="n">
         <v>6</v>
@@ -7582,10 +7516,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F151" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G151" t="n">
         <v>3</v>
@@ -7611,10 +7545,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F152" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -7640,10 +7574,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F153" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -7669,10 +7603,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F154" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -7698,10 +7632,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F155" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -7727,10 +7661,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F156" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -7756,10 +7690,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F157" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G157" t="n">
         <v>13</v>
@@ -7785,10 +7719,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F158" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -7814,10 +7748,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F159" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G159" t="n">
         <v>4</v>
@@ -7843,10 +7777,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F160" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G160" t="n">
         <v>4</v>
@@ -7872,10 +7806,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F161" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -7901,10 +7835,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F162" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G162" t="n">
         <v>2</v>
@@ -7959,10 +7893,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F164" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7988,10 +7922,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F165" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G165" t="n">
         <v>3</v>
@@ -8017,10 +7951,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F166" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G166" t="n">
         <v>2</v>
@@ -8046,10 +7980,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F167" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -8075,10 +8009,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F168" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -8104,10 +8038,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F169" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G169" t="n">
         <v>4</v>
@@ -8133,10 +8067,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F170" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -8162,10 +8096,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F171" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -8191,10 +8125,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F172" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G172" t="n">
         <v>7</v>
@@ -8220,10 +8154,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F173" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G173" t="n">
         <v>5</v>
@@ -8249,10 +8183,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F174" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -8278,10 +8212,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F175" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G175" t="n">
         <v>4</v>
@@ -8307,10 +8241,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F176" t="s">
-        <v>342</v>
+        <v>89</v>
       </c>
       <c r="G176" t="n">
         <v>2</v>
@@ -8336,10 +8270,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="F177" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="G177" t="n">
         <v>2</v>
@@ -8365,10 +8299,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="F178" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="G178" t="n">
         <v>2</v>
@@ -8394,10 +8328,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F179" t="s">
-        <v>348</v>
+        <v>310</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -8423,10 +8357,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="F180" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -8452,10 +8386,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F181" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="G181" t="n">
         <v>2</v>
@@ -8481,10 +8415,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="F182" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="G182" t="n">
         <v>2</v>
@@ -8510,10 +8444,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="F183" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="G183" t="n">
         <v>2</v>
@@ -8539,10 +8473,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="F184" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -8568,10 +8502,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="F185" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="G185" t="n">
         <v>3</v>
@@ -8597,10 +8531,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="F186" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="G186" t="n">
         <v>6</v>
@@ -8626,10 +8560,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="F187" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -8655,10 +8589,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="F188" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="G188" t="n">
         <v>2</v>
@@ -8684,10 +8618,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="F189" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -8713,10 +8647,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="F190" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -8742,10 +8676,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="F191" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -8771,10 +8705,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="F192" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -8800,10 +8734,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="F193" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="G193" t="n">
         <v>2</v>
@@ -8829,10 +8763,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="F194" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -8858,10 +8792,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="F195" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8887,10 +8821,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="F196" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="G196" t="n">
         <v>7</v>
@@ -8916,10 +8850,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="F197" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8945,10 +8879,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="F198" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8974,10 +8908,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="F199" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="G199" t="n">
         <v>3</v>
@@ -9003,10 +8937,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="F200" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -9032,10 +8966,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F201" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -9061,10 +8995,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="F202" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -9090,10 +9024,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="F203" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -9119,10 +9053,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="F204" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="G204" t="n">
         <v>8</v>
@@ -9148,10 +9082,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="F205" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="G205" t="n">
         <v>5</v>
@@ -9177,10 +9111,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="F206" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -9206,10 +9140,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="F207" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -9235,10 +9169,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="F208" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -9264,10 +9198,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="F209" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -9293,10 +9227,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="F210" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="G210" t="n">
         <v>2</v>
@@ -9322,10 +9256,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="F211" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -9351,10 +9285,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="F212" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -9380,10 +9314,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="F213" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -9409,10 +9343,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="F214" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -9438,10 +9372,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="F215" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="G215" t="n">
         <v>8</v>
@@ -9467,10 +9401,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="F216" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="G216" t="n">
         <v>2</v>
@@ -9496,10 +9430,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="F217" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -9525,10 +9459,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="F218" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="G218" t="n">
         <v>2</v>
@@ -9554,10 +9488,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="F219" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -9583,10 +9517,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="F220" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="G220" t="n">
         <v>2</v>
@@ -9612,10 +9546,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="F221" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -9641,10 +9575,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="F222" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -9670,10 +9604,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="F223" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="G223" t="n">
         <v>3</v>
@@ -9699,10 +9633,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="F224" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="G224" t="n">
         <v>5</v>
@@ -9728,10 +9662,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="F225" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9757,10 +9691,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="F226" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9786,10 +9720,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="F227" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9815,10 +9749,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="F228" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9844,10 +9778,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="F229" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="G229" t="n">
         <v>2</v>
@@ -9873,10 +9807,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="F230" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9902,10 +9836,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="F231" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9931,10 +9865,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="F232" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="G232" t="n">
         <v>2</v>
@@ -9960,10 +9894,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="F233" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9989,10 +9923,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="F234" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -10018,10 +9952,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="F235" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -10047,10 +9981,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="F236" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -10076,10 +10010,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="F237" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="G237" t="n">
         <v>2</v>
@@ -10105,10 +10039,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="F238" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="G238" t="n">
         <v>3</v>
@@ -10134,10 +10068,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="F239" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -10163,10 +10097,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="F240" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -10192,10 +10126,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F241" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -10221,10 +10155,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="F242" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="G242" t="n">
         <v>2</v>
@@ -10250,10 +10184,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="F243" t="s">
-        <v>476</v>
+        <v>429</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -10279,10 +10213,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="F244" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="G244" t="n">
         <v>3</v>
@@ -10308,10 +10242,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="F245" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -10337,10 +10271,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F246" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -10366,10 +10300,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F247" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="G247" t="n">
         <v>13</v>
@@ -10395,10 +10329,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="F248" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="G248" t="n">
         <v>4</v>
@@ -10424,10 +10358,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="F249" t="s">
-        <v>488</v>
+        <v>376</v>
       </c>
       <c r="G249" t="n">
         <v>10</v>
@@ -10453,10 +10387,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="F250" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="G250" t="n">
         <v>2</v>
@@ -10482,10 +10416,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="F251" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="G251" t="n">
         <v>4</v>
@@ -10511,10 +10445,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="F252" t="s">
-        <v>494</v>
+        <v>332</v>
       </c>
       <c r="G252" t="n">
         <v>5</v>
@@ -10540,10 +10474,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="F253" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -10569,10 +10503,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="F254" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="G254" t="n">
         <v>18</v>
@@ -10598,10 +10532,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="F255" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="G255" t="n">
         <v>2</v>
@@ -10627,10 +10561,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="F256" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="G256" t="n">
         <v>2</v>
@@ -10656,10 +10590,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="F257" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -10685,10 +10619,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="F258" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="G258" t="n">
         <v>3</v>
@@ -10714,10 +10648,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="F259" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10743,10 +10677,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="F260" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10772,10 +10706,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="F261" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="G261" t="n">
         <v>9</v>
@@ -10801,10 +10735,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="F262" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10830,10 +10764,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="F263" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10859,10 +10793,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="F264" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="G264" t="n">
         <v>2</v>
@@ -10888,10 +10822,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="F265" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="G265" t="n">
         <v>7</v>
@@ -10917,10 +10851,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="F266" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="G266" t="n">
         <v>2</v>
@@ -10946,10 +10880,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="F267" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10975,10 +10909,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="F268" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="G268" t="n">
         <v>15</v>
@@ -11004,10 +10938,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="F269" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="G269" t="n">
         <v>2</v>
@@ -11033,10 +10967,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="F270" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -11062,10 +10996,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
+        <v>194</v>
+      </c>
+      <c r="F271" t="s">
         <v>195</v>
-      </c>
-      <c r="F271" t="s">
-        <v>196</v>
       </c>
       <c r="G271" t="n">
         <v>16</v>
@@ -11091,10 +11025,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="F272" t="s">
-        <v>532</v>
+        <v>251</v>
       </c>
       <c r="G272" t="n">
         <v>10</v>
@@ -11120,10 +11054,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="F273" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="G273" t="n">
         <v>2</v>
@@ -11149,10 +11083,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="F274" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -11178,10 +11112,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
+        <v>76</v>
+      </c>
+      <c r="F275" t="s">
         <v>77</v>
-      </c>
-      <c r="F275" t="s">
-        <v>78</v>
       </c>
       <c r="G275" t="n">
         <v>10</v>
@@ -11207,10 +11141,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="F276" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="G276" t="n">
         <v>4</v>
@@ -11236,10 +11170,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="F277" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="G277" t="n">
         <v>2</v>
@@ -11265,10 +11199,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="F278" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="G278" t="n">
         <v>3</v>
@@ -11294,10 +11228,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="F279" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -11323,10 +11257,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="F280" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -11352,10 +11286,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="F281" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="G281" t="n">
         <v>9</v>
@@ -11381,10 +11315,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="F282" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="G282" t="n">
         <v>3</v>
@@ -11410,10 +11344,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="F283" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -11439,10 +11373,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="F284" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -11468,10 +11402,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="F285" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -11497,10 +11431,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="F286" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -11526,10 +11460,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="F287" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -11555,10 +11489,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="F288" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="G288" t="n">
         <v>3</v>
@@ -11584,10 +11518,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="F289" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -11613,10 +11547,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="F290" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -11642,10 +11576,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="F291" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -11671,10 +11605,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="F292" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11700,10 +11634,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="F293" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11729,10 +11663,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="F294" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11758,10 +11692,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="F295" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11787,10 +11721,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="F296" t="s">
-        <v>578</v>
+        <v>111</v>
       </c>
       <c r="G296" t="n">
         <v>2</v>
@@ -11816,10 +11750,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="F297" t="s">
-        <v>580</v>
+        <v>225</v>
       </c>
       <c r="G297" t="n">
         <v>17</v>
@@ -11845,10 +11779,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="F298" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11874,10 +11808,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="F299" t="s">
-        <v>584</v>
+        <v>571</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11903,10 +11837,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>585</v>
+        <v>572</v>
       </c>
       <c r="F300" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11932,10 +11866,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="F301" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11961,10 +11895,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="F302" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="G302" t="n">
         <v>2</v>
@@ -11990,10 +11924,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>591</v>
+        <v>578</v>
       </c>
       <c r="F303" t="s">
-        <v>592</v>
+        <v>579</v>
       </c>
       <c r="G303" t="n">
         <v>2</v>
@@ -12019,10 +11953,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="F304" t="s">
-        <v>594</v>
+        <v>581</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -12048,10 +11982,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>595</v>
+        <v>582</v>
       </c>
       <c r="F305" t="s">
-        <v>596</v>
+        <v>583</v>
       </c>
       <c r="G305" t="n">
         <v>2</v>
@@ -12077,10 +12011,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>597</v>
+        <v>584</v>
       </c>
       <c r="F306" t="s">
-        <v>598</v>
+        <v>585</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -12106,10 +12040,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>599</v>
+        <v>586</v>
       </c>
       <c r="F307" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -12135,10 +12069,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>601</v>
+        <v>588</v>
       </c>
       <c r="F308" t="s">
-        <v>602</v>
+        <v>589</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -12164,10 +12098,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="F309" t="s">
-        <v>604</v>
+        <v>591</v>
       </c>
       <c r="G309" t="n">
         <v>2</v>
@@ -12193,10 +12127,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="F310" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="G310" t="n">
         <v>2</v>
@@ -12222,10 +12156,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
       <c r="F311" t="s">
-        <v>608</v>
+        <v>595</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -12251,10 +12185,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="F312" t="s">
-        <v>610</v>
+        <v>149</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -12280,10 +12214,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>611</v>
+        <v>597</v>
       </c>
       <c r="F313" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
       <c r="G313" t="n">
         <v>3</v>
@@ -12309,10 +12243,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>613</v>
+        <v>599</v>
       </c>
       <c r="F314" t="s">
-        <v>614</v>
+        <v>151</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -12338,10 +12272,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>615</v>
+        <v>600</v>
       </c>
       <c r="F315" t="s">
-        <v>616</v>
+        <v>601</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -12367,10 +12301,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>617</v>
+        <v>602</v>
       </c>
       <c r="F316" t="s">
-        <v>618</v>
+        <v>354</v>
       </c>
       <c r="G316" t="n">
         <v>5</v>
@@ -12396,10 +12330,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
       <c r="F317" t="s">
-        <v>620</v>
+        <v>604</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -12425,10 +12359,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>621</v>
+        <v>605</v>
       </c>
       <c r="F318" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -12454,10 +12388,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>623</v>
+        <v>607</v>
       </c>
       <c r="F319" t="s">
-        <v>624</v>
+        <v>608</v>
       </c>
       <c r="G319" t="n">
         <v>3</v>
@@ -12483,10 +12417,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>625</v>
+        <v>609</v>
       </c>
       <c r="F320" t="s">
-        <v>626</v>
+        <v>610</v>
       </c>
       <c r="G320" t="n">
         <v>2</v>
@@ -12512,10 +12446,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>627</v>
+        <v>611</v>
       </c>
       <c r="F321" t="s">
-        <v>628</v>
+        <v>612</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -12541,10 +12475,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>629</v>
+        <v>613</v>
       </c>
       <c r="F322" t="s">
-        <v>630</v>
+        <v>614</v>
       </c>
       <c r="G322" t="n">
         <v>2</v>
@@ -12570,10 +12504,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>631</v>
+        <v>615</v>
       </c>
       <c r="F323" t="s">
-        <v>632</v>
+        <v>616</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -12599,10 +12533,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>633</v>
+        <v>617</v>
       </c>
       <c r="F324" t="s">
-        <v>634</v>
+        <v>618</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12628,10 +12562,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="F325" t="s">
-        <v>636</v>
+        <v>620</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -12657,10 +12591,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>637</v>
+        <v>621</v>
       </c>
       <c r="F326" t="s">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="G326" t="n">
         <v>9</v>
@@ -12686,10 +12620,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>639</v>
+        <v>623</v>
       </c>
       <c r="F327" t="s">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12715,10 +12649,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="F328" t="s">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12744,10 +12678,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>643</v>
+        <v>627</v>
       </c>
       <c r="F329" t="s">
-        <v>644</v>
+        <v>628</v>
       </c>
       <c r="G329" t="n">
         <v>14</v>
@@ -12773,10 +12707,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>645</v>
+        <v>629</v>
       </c>
       <c r="F330" t="s">
-        <v>646</v>
+        <v>630</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12802,10 +12736,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>647</v>
+        <v>631</v>
       </c>
       <c r="F331" t="s">
-        <v>648</v>
+        <v>632</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12831,10 +12765,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>649</v>
+        <v>633</v>
       </c>
       <c r="F332" t="s">
-        <v>650</v>
+        <v>634</v>
       </c>
       <c r="G332" t="n">
         <v>3</v>
@@ -12860,10 +12794,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>651</v>
+        <v>635</v>
       </c>
       <c r="F333" t="s">
-        <v>652</v>
+        <v>636</v>
       </c>
       <c r="G333" t="n">
         <v>15</v>
@@ -12889,10 +12823,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>653</v>
+        <v>637</v>
       </c>
       <c r="F334" t="s">
-        <v>654</v>
+        <v>638</v>
       </c>
       <c r="G334" t="n">
         <v>2</v>
@@ -12918,10 +12852,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>655</v>
+        <v>639</v>
       </c>
       <c r="F335" t="s">
-        <v>656</v>
+        <v>640</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12947,10 +12881,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>657</v>
+        <v>641</v>
       </c>
       <c r="F336" t="s">
-        <v>658</v>
+        <v>642</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12976,10 +12910,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>659</v>
+        <v>643</v>
       </c>
       <c r="F337" t="s">
-        <v>660</v>
+        <v>644</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -13005,10 +12939,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>661</v>
+        <v>645</v>
       </c>
       <c r="F338" t="s">
-        <v>662</v>
+        <v>646</v>
       </c>
       <c r="G338" t="n">
         <v>2</v>
@@ -13034,10 +12968,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="F339" t="s">
-        <v>664</v>
+        <v>648</v>
       </c>
       <c r="G339" t="n">
         <v>2</v>
@@ -13063,10 +12997,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>665</v>
+        <v>649</v>
       </c>
       <c r="F340" t="s">
-        <v>666</v>
+        <v>650</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -13092,10 +13026,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>667</v>
+        <v>651</v>
       </c>
       <c r="F341" t="s">
-        <v>668</v>
+        <v>652</v>
       </c>
       <c r="G341" t="n">
         <v>5</v>
@@ -13121,10 +13055,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>669</v>
+        <v>653</v>
       </c>
       <c r="F342" t="s">
-        <v>670</v>
+        <v>654</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -13150,10 +13084,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>671</v>
+        <v>655</v>
       </c>
       <c r="F343" t="s">
-        <v>672</v>
+        <v>656</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -13179,10 +13113,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>673</v>
+        <v>657</v>
       </c>
       <c r="F344" t="s">
-        <v>674</v>
+        <v>658</v>
       </c>
       <c r="G344" t="n">
         <v>3</v>
@@ -13208,10 +13142,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="F345" t="s">
-        <v>578</v>
+        <v>111</v>
       </c>
       <c r="G345" t="n">
         <v>4</v>
@@ -13237,10 +13171,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>675</v>
+        <v>659</v>
       </c>
       <c r="F346" t="s">
-        <v>676</v>
+        <v>660</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -13266,10 +13200,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F347" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G347" t="n">
         <v>2</v>
@@ -13295,10 +13229,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>677</v>
+        <v>661</v>
       </c>
       <c r="F348" t="s">
-        <v>678</v>
+        <v>662</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -13324,10 +13258,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>679</v>
+        <v>663</v>
       </c>
       <c r="F349" t="s">
-        <v>680</v>
+        <v>664</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -13353,10 +13287,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="F350" t="s">
-        <v>682</v>
+        <v>666</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -13382,10 +13316,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>683</v>
+        <v>667</v>
       </c>
       <c r="F351" t="s">
-        <v>684</v>
+        <v>668</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -13411,10 +13345,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>685</v>
+        <v>669</v>
       </c>
       <c r="F352" t="s">
-        <v>686</v>
+        <v>670</v>
       </c>
       <c r="G352" t="n">
         <v>3</v>
@@ -13440,10 +13374,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>687</v>
+        <v>671</v>
       </c>
       <c r="F353" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -13469,10 +13403,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>689</v>
+        <v>673</v>
       </c>
       <c r="F354" t="s">
-        <v>690</v>
+        <v>674</v>
       </c>
       <c r="G354" t="n">
         <v>4</v>
@@ -13498,10 +13432,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>691</v>
+        <v>675</v>
       </c>
       <c r="F355" t="s">
-        <v>692</v>
+        <v>676</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -13527,10 +13461,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>693</v>
+        <v>677</v>
       </c>
       <c r="F356" t="s">
-        <v>694</v>
+        <v>678</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -13556,10 +13490,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>695</v>
+        <v>679</v>
       </c>
       <c r="F357" t="s">
-        <v>696</v>
+        <v>680</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -13585,10 +13519,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>697</v>
+        <v>681</v>
       </c>
       <c r="F358" t="s">
-        <v>698</v>
+        <v>682</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13614,10 +13548,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>699</v>
+        <v>683</v>
       </c>
       <c r="F359" t="s">
-        <v>700</v>
+        <v>684</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13643,10 +13577,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>701</v>
+        <v>685</v>
       </c>
       <c r="F360" t="s">
-        <v>702</v>
+        <v>686</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13672,10 +13606,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>703</v>
+        <v>687</v>
       </c>
       <c r="F361" t="s">
-        <v>704</v>
+        <v>688</v>
       </c>
       <c r="G361" t="n">
         <v>2</v>
@@ -13701,10 +13635,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>705</v>
+        <v>689</v>
       </c>
       <c r="F362" t="s">
-        <v>706</v>
+        <v>690</v>
       </c>
       <c r="G362" t="n">
         <v>2</v>
@@ -13730,10 +13664,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>707</v>
+        <v>691</v>
       </c>
       <c r="F363" t="s">
-        <v>708</v>
+        <v>692</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13759,10 +13693,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>709</v>
+        <v>693</v>
       </c>
       <c r="F364" t="s">
-        <v>710</v>
+        <v>694</v>
       </c>
       <c r="G364" t="n">
         <v>4</v>
@@ -13788,10 +13722,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>711</v>
+        <v>695</v>
       </c>
       <c r="F365" t="s">
-        <v>712</v>
+        <v>696</v>
       </c>
       <c r="G365" t="n">
         <v>2</v>
@@ -13817,10 +13751,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>713</v>
+        <v>697</v>
       </c>
       <c r="F366" t="s">
-        <v>714</v>
+        <v>698</v>
       </c>
       <c r="G366" t="n">
         <v>2</v>
@@ -13846,10 +13780,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>715</v>
+        <v>699</v>
       </c>
       <c r="F367" t="s">
-        <v>716</v>
+        <v>700</v>
       </c>
       <c r="G367" t="n">
         <v>2</v>
@@ -13875,10 +13809,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>717</v>
+        <v>701</v>
       </c>
       <c r="F368" t="s">
-        <v>718</v>
+        <v>702</v>
       </c>
       <c r="G368" t="n">
         <v>2</v>
@@ -13904,10 +13838,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>719</v>
+        <v>703</v>
       </c>
       <c r="F369" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13933,10 +13867,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>721</v>
+        <v>705</v>
       </c>
       <c r="F370" t="s">
-        <v>722</v>
+        <v>706</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -13962,10 +13896,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
       <c r="F371" t="s">
-        <v>724</v>
+        <v>708</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -13991,10 +13925,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="F372" t="s">
-        <v>726</v>
+        <v>710</v>
       </c>
       <c r="G372" t="n">
         <v>3</v>
@@ -14020,10 +13954,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>727</v>
+        <v>711</v>
       </c>
       <c r="F373" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -14049,10 +13983,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>729</v>
+        <v>713</v>
       </c>
       <c r="F374" t="s">
-        <v>730</v>
+        <v>714</v>
       </c>
       <c r="G374" t="n">
         <v>2</v>
@@ -14078,10 +14012,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>731</v>
+        <v>715</v>
       </c>
       <c r="F375" t="s">
-        <v>732</v>
+        <v>716</v>
       </c>
       <c r="G375" t="n">
         <v>2</v>
@@ -14107,10 +14041,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="F376" t="s">
-        <v>734</v>
+        <v>718</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -14136,10 +14070,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>735</v>
+        <v>719</v>
       </c>
       <c r="F377" t="s">
-        <v>736</v>
+        <v>720</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -14165,10 +14099,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>737</v>
+        <v>721</v>
       </c>
       <c r="F378" t="s">
-        <v>738</v>
+        <v>722</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -14194,10 +14128,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>739</v>
+        <v>723</v>
       </c>
       <c r="F379" t="s">
-        <v>740</v>
+        <v>724</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -14223,10 +14157,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>741</v>
+        <v>725</v>
       </c>
       <c r="F380" t="s">
-        <v>742</v>
+        <v>726</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -14252,10 +14186,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>743</v>
+        <v>727</v>
       </c>
       <c r="F381" t="s">
-        <v>744</v>
+        <v>728</v>
       </c>
       <c r="G381" t="n">
         <v>3</v>
@@ -14281,10 +14215,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>745</v>
+        <v>729</v>
       </c>
       <c r="F382" t="s">
-        <v>746</v>
+        <v>730</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -14310,10 +14244,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>747</v>
+        <v>731</v>
       </c>
       <c r="F383" t="s">
-        <v>748</v>
+        <v>732</v>
       </c>
       <c r="G383" t="n">
         <v>3</v>
@@ -14339,10 +14273,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="F384" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -14368,10 +14302,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>749</v>
+        <v>733</v>
       </c>
       <c r="F385" t="s">
-        <v>750</v>
+        <v>734</v>
       </c>
       <c r="G385" t="n">
         <v>4</v>
@@ -14397,10 +14331,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>751</v>
+        <v>735</v>
       </c>
       <c r="F386" t="s">
-        <v>752</v>
+        <v>736</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -14426,10 +14360,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>753</v>
+        <v>737</v>
       </c>
       <c r="F387" t="s">
-        <v>754</v>
+        <v>738</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -14455,10 +14389,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>755</v>
+        <v>739</v>
       </c>
       <c r="F388" t="s">
-        <v>756</v>
+        <v>740</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -14484,10 +14418,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>757</v>
+        <v>741</v>
       </c>
       <c r="F389" t="s">
-        <v>758</v>
+        <v>742</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14513,10 +14447,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>759</v>
+        <v>743</v>
       </c>
       <c r="F390" t="s">
-        <v>760</v>
+        <v>744</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -14542,10 +14476,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>761</v>
+        <v>745</v>
       </c>
       <c r="F391" t="s">
-        <v>762</v>
+        <v>746</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -14571,10 +14505,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
+        <v>230</v>
+      </c>
+      <c r="F392" t="s">
         <v>231</v>
-      </c>
-      <c r="F392" t="s">
-        <v>232</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -14600,10 +14534,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>763</v>
+        <v>747</v>
       </c>
       <c r="F393" t="s">
-        <v>764</v>
+        <v>748</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -14629,10 +14563,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>765</v>
+        <v>749</v>
       </c>
       <c r="F394" t="s">
-        <v>766</v>
+        <v>750</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -14658,10 +14592,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
+        <v>232</v>
+      </c>
+      <c r="F395" t="s">
         <v>233</v>
-      </c>
-      <c r="F395" t="s">
-        <v>234</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -14687,10 +14621,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>767</v>
+        <v>751</v>
       </c>
       <c r="F396" t="s">
-        <v>768</v>
+        <v>752</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -14716,10 +14650,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>769</v>
+        <v>753</v>
       </c>
       <c r="F397" t="s">
-        <v>770</v>
+        <v>754</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -14745,10 +14679,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>771</v>
+        <v>755</v>
       </c>
       <c r="F398" t="s">
-        <v>772</v>
+        <v>756</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -14774,10 +14708,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>773</v>
+        <v>757</v>
       </c>
       <c r="F399" t="s">
-        <v>774</v>
+        <v>758</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -14803,10 +14737,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>775</v>
+        <v>759</v>
       </c>
       <c r="F400" t="s">
-        <v>776</v>
+        <v>760</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -14832,10 +14766,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>777</v>
+        <v>761</v>
       </c>
       <c r="F401" t="s">
-        <v>778</v>
+        <v>762</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -14861,10 +14795,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>779</v>
+        <v>763</v>
       </c>
       <c r="F402" t="s">
-        <v>780</v>
+        <v>764</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -14890,10 +14824,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>781</v>
+        <v>765</v>
       </c>
       <c r="F403" t="s">
-        <v>782</v>
+        <v>766</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -14919,10 +14853,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>783</v>
+        <v>767</v>
       </c>
       <c r="F404" t="s">
-        <v>784</v>
+        <v>768</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -14948,10 +14882,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>785</v>
+        <v>769</v>
       </c>
       <c r="F405" t="s">
-        <v>786</v>
+        <v>61</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -15035,10 +14969,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>787</v>
+        <v>770</v>
       </c>
       <c r="F408" t="s">
-        <v>788</v>
+        <v>771</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -15064,10 +14998,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>789</v>
+        <v>772</v>
       </c>
       <c r="F409" t="s">
-        <v>790</v>
+        <v>773</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -15093,10 +15027,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>791</v>
+        <v>774</v>
       </c>
       <c r="F410" t="s">
-        <v>792</v>
+        <v>775</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -15122,10 +15056,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>793</v>
+        <v>776</v>
       </c>
       <c r="F411" t="s">
-        <v>794</v>
+        <v>777</v>
       </c>
       <c r="G411" t="n">
         <v>2</v>
@@ -15151,10 +15085,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>795</v>
+        <v>778</v>
       </c>
       <c r="F412" t="s">
-        <v>796</v>
+        <v>779</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -15180,10 +15114,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>797</v>
+        <v>780</v>
       </c>
       <c r="F413" t="s">
-        <v>798</v>
+        <v>781</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -15238,10 +15172,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>799</v>
+        <v>782</v>
       </c>
       <c r="F415" t="s">
-        <v>800</v>
+        <v>783</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -15267,10 +15201,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>801</v>
+        <v>784</v>
       </c>
       <c r="F416" t="s">
-        <v>802</v>
+        <v>785</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -15296,10 +15230,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>803</v>
+        <v>786</v>
       </c>
       <c r="F417" t="s">
-        <v>804</v>
+        <v>787</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -15325,10 +15259,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>805</v>
+        <v>788</v>
       </c>
       <c r="F418" t="s">
-        <v>806</v>
+        <v>789</v>
       </c>
       <c r="G418" t="n">
         <v>6</v>
@@ -15354,10 +15288,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>807</v>
+        <v>790</v>
       </c>
       <c r="F419" t="s">
-        <v>808</v>
+        <v>791</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -15383,10 +15317,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>809</v>
+        <v>792</v>
       </c>
       <c r="F420" t="s">
-        <v>810</v>
+        <v>793</v>
       </c>
       <c r="G420" t="n">
         <v>2</v>
@@ -15412,10 +15346,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>811</v>
+        <v>794</v>
       </c>
       <c r="F421" t="s">
-        <v>812</v>
+        <v>795</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -15441,10 +15375,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>813</v>
+        <v>796</v>
       </c>
       <c r="F422" t="s">
-        <v>814</v>
+        <v>797</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -15470,10 +15404,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>815</v>
+        <v>798</v>
       </c>
       <c r="F423" t="s">
-        <v>816</v>
+        <v>799</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -15499,10 +15433,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
+        <v>110</v>
+      </c>
+      <c r="F424" t="s">
         <v>111</v>
-      </c>
-      <c r="F424" t="s">
-        <v>112</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -15528,10 +15462,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>817</v>
+        <v>800</v>
       </c>
       <c r="F425" t="s">
-        <v>818</v>
+        <v>801</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -15557,10 +15491,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>819</v>
+        <v>802</v>
       </c>
       <c r="F426" t="s">
-        <v>820</v>
+        <v>803</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -15586,10 +15520,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>821</v>
+        <v>804</v>
       </c>
       <c r="F427" t="s">
-        <v>822</v>
+        <v>805</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -15615,10 +15549,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>823</v>
+        <v>806</v>
       </c>
       <c r="F428" t="s">
-        <v>824</v>
+        <v>807</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -15644,10 +15578,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
+        <v>214</v>
+      </c>
+      <c r="F429" t="s">
         <v>215</v>
-      </c>
-      <c r="F429" t="s">
-        <v>216</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -15673,10 +15607,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>825</v>
+        <v>808</v>
       </c>
       <c r="F430" t="s">
-        <v>826</v>
+        <v>809</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -15702,10 +15636,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>827</v>
+        <v>810</v>
       </c>
       <c r="F431" t="s">
-        <v>828</v>
+        <v>811</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -15731,10 +15665,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>829</v>
+        <v>812</v>
       </c>
       <c r="F432" t="s">
-        <v>830</v>
+        <v>813</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -15760,10 +15694,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>831</v>
+        <v>814</v>
       </c>
       <c r="F433" t="s">
-        <v>832</v>
+        <v>815</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -15789,10 +15723,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>833</v>
+        <v>816</v>
       </c>
       <c r="F434" t="s">
-        <v>834</v>
+        <v>817</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -15818,10 +15752,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>835</v>
+        <v>818</v>
       </c>
       <c r="F435" t="s">
-        <v>836</v>
+        <v>819</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -15847,10 +15781,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>837</v>
+        <v>820</v>
       </c>
       <c r="F436" t="s">
-        <v>838</v>
+        <v>821</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -15876,10 +15810,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>839</v>
+        <v>822</v>
       </c>
       <c r="F437" t="s">
-        <v>840</v>
+        <v>823</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -15905,10 +15839,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>841</v>
+        <v>824</v>
       </c>
       <c r="F438" t="s">
-        <v>842</v>
+        <v>825</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -15934,10 +15868,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>843</v>
+        <v>826</v>
       </c>
       <c r="F439" t="s">
-        <v>844</v>
+        <v>827</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -15963,10 +15897,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>845</v>
+        <v>828</v>
       </c>
       <c r="F440" t="s">
-        <v>846</v>
+        <v>829</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -15992,10 +15926,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>847</v>
+        <v>830</v>
       </c>
       <c r="F441" t="s">
-        <v>848</v>
+        <v>831</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -16021,10 +15955,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>849</v>
+        <v>832</v>
       </c>
       <c r="F442" t="s">
-        <v>850</v>
+        <v>833</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -16050,10 +15984,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>851</v>
+        <v>834</v>
       </c>
       <c r="F443" t="s">
-        <v>852</v>
+        <v>835</v>
       </c>
       <c r="G443" t="n">
         <v>1</v>
@@ -16079,10 +16013,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>853</v>
+        <v>836</v>
       </c>
       <c r="F444" t="s">
-        <v>854</v>
+        <v>837</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -16108,10 +16042,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>855</v>
+        <v>838</v>
       </c>
       <c r="F445" t="s">
-        <v>856</v>
+        <v>805</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -16137,10 +16071,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>857</v>
+        <v>839</v>
       </c>
       <c r="F446" t="s">
-        <v>858</v>
+        <v>840</v>
       </c>
       <c r="G446" t="n">
         <v>5</v>
@@ -16166,10 +16100,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>697</v>
+        <v>681</v>
       </c>
       <c r="F447" t="s">
-        <v>698</v>
+        <v>682</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -16195,10 +16129,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>859</v>
+        <v>841</v>
       </c>
       <c r="F448" t="s">
-        <v>860</v>
+        <v>842</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -16224,10 +16158,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>861</v>
+        <v>843</v>
       </c>
       <c r="F449" t="s">
-        <v>862</v>
+        <v>844</v>
       </c>
       <c r="G449" t="n">
         <v>4</v>
@@ -16253,10 +16187,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>863</v>
+        <v>845</v>
       </c>
       <c r="F450" t="s">
-        <v>864</v>
+        <v>846</v>
       </c>
       <c r="G450" t="n">
         <v>1</v>
@@ -16282,10 +16216,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>865</v>
+        <v>847</v>
       </c>
       <c r="F451" t="s">
-        <v>866</v>
+        <v>848</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -16311,10 +16245,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>867</v>
+        <v>849</v>
       </c>
       <c r="F452" t="s">
-        <v>868</v>
+        <v>850</v>
       </c>
       <c r="G452" t="n">
         <v>1</v>
@@ -16340,10 +16274,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>869</v>
+        <v>851</v>
       </c>
       <c r="F453" t="s">
-        <v>870</v>
+        <v>852</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -16369,10 +16303,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>871</v>
+        <v>853</v>
       </c>
       <c r="F454" t="s">
-        <v>872</v>
+        <v>854</v>
       </c>
       <c r="G454" t="n">
         <v>11</v>
@@ -16398,10 +16332,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>873</v>
+        <v>855</v>
       </c>
       <c r="F455" t="s">
-        <v>874</v>
+        <v>856</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -16427,10 +16361,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>875</v>
+        <v>857</v>
       </c>
       <c r="F456" t="s">
-        <v>876</v>
+        <v>858</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -16456,10 +16390,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>877</v>
+        <v>859</v>
       </c>
       <c r="F457" t="s">
-        <v>878</v>
+        <v>860</v>
       </c>
       <c r="G457" t="n">
         <v>1</v>
@@ -16485,10 +16419,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>879</v>
+        <v>861</v>
       </c>
       <c r="F458" t="s">
-        <v>880</v>
+        <v>862</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -16514,10 +16448,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>881</v>
+        <v>863</v>
       </c>
       <c r="F459" t="s">
-        <v>882</v>
+        <v>864</v>
       </c>
       <c r="G459" t="n">
         <v>1</v>
@@ -16543,10 +16477,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>883</v>
+        <v>865</v>
       </c>
       <c r="F460" t="s">
-        <v>884</v>
+        <v>866</v>
       </c>
       <c r="G460" t="n">
         <v>1</v>
@@ -16572,10 +16506,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>885</v>
+        <v>867</v>
       </c>
       <c r="F461" t="s">
-        <v>886</v>
+        <v>868</v>
       </c>
       <c r="G461" t="n">
         <v>1</v>
@@ -16601,10 +16535,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>887</v>
+        <v>869</v>
       </c>
       <c r="F462" t="s">
-        <v>888</v>
+        <v>870</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>
@@ -16630,10 +16564,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>889</v>
+        <v>871</v>
       </c>
       <c r="F463" t="s">
-        <v>890</v>
+        <v>872</v>
       </c>
       <c r="G463" t="n">
         <v>1</v>
@@ -16659,10 +16593,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>891</v>
+        <v>873</v>
       </c>
       <c r="F464" t="s">
-        <v>892</v>
+        <v>215</v>
       </c>
       <c r="G464" t="n">
         <v>9</v>
@@ -16688,10 +16622,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>893</v>
+        <v>874</v>
       </c>
       <c r="F465" t="s">
-        <v>894</v>
+        <v>875</v>
       </c>
       <c r="G465" t="n">
         <v>1</v>
@@ -16717,10 +16651,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>895</v>
+        <v>876</v>
       </c>
       <c r="F466" t="s">
-        <v>896</v>
+        <v>877</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>
@@ -16746,10 +16680,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>807</v>
+        <v>790</v>
       </c>
       <c r="F467" t="s">
-        <v>808</v>
+        <v>791</v>
       </c>
       <c r="G467" t="n">
         <v>1</v>
@@ -16775,10 +16709,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>897</v>
+        <v>878</v>
       </c>
       <c r="F468" t="s">
-        <v>898</v>
+        <v>879</v>
       </c>
       <c r="G468" t="n">
         <v>1</v>
@@ -16804,10 +16738,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>899</v>
+        <v>880</v>
       </c>
       <c r="F469" t="s">
-        <v>900</v>
+        <v>881</v>
       </c>
       <c r="G469" t="n">
         <v>1</v>
@@ -16833,10 +16767,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>901</v>
+        <v>882</v>
       </c>
       <c r="F470" t="s">
-        <v>902</v>
+        <v>883</v>
       </c>
       <c r="G470" t="n">
         <v>1</v>
@@ -16862,10 +16796,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>903</v>
+        <v>884</v>
       </c>
       <c r="F471" t="s">
-        <v>904</v>
+        <v>781</v>
       </c>
       <c r="G471" t="n">
         <v>1</v>
@@ -16891,10 +16825,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>905</v>
+        <v>885</v>
       </c>
       <c r="F472" t="s">
-        <v>906</v>
+        <v>886</v>
       </c>
       <c r="G472" t="n">
         <v>2</v>
@@ -16920,10 +16854,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>907</v>
+        <v>887</v>
       </c>
       <c r="F473" t="s">
-        <v>908</v>
+        <v>531</v>
       </c>
       <c r="G473" t="n">
         <v>1</v>
@@ -16949,10 +16883,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>909</v>
+        <v>888</v>
       </c>
       <c r="F474" t="s">
-        <v>910</v>
+        <v>889</v>
       </c>
       <c r="G474" t="n">
         <v>1</v>
@@ -16978,10 +16912,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>911</v>
+        <v>890</v>
       </c>
       <c r="F475" t="s">
-        <v>912</v>
+        <v>486</v>
       </c>
       <c r="G475" t="n">
         <v>1</v>
@@ -17007,10 +16941,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>913</v>
+        <v>891</v>
       </c>
       <c r="F476" t="s">
-        <v>914</v>
+        <v>892</v>
       </c>
       <c r="G476" t="n">
         <v>1</v>
@@ -17036,10 +16970,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>915</v>
+        <v>893</v>
       </c>
       <c r="F477" t="s">
-        <v>916</v>
+        <v>894</v>
       </c>
       <c r="G477" t="n">
         <v>1</v>
@@ -17065,10 +16999,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>821</v>
+        <v>804</v>
       </c>
       <c r="F478" t="s">
-        <v>822</v>
+        <v>805</v>
       </c>
       <c r="G478" t="n">
         <v>1</v>
@@ -17094,10 +17028,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="F479" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="G479" t="n">
         <v>1</v>
@@ -17123,10 +17057,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>917</v>
+        <v>895</v>
       </c>
       <c r="F480" t="s">
-        <v>918</v>
+        <v>896</v>
       </c>
       <c r="G480" t="n">
         <v>1</v>
@@ -17152,10 +17086,10 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>919</v>
+        <v>897</v>
       </c>
       <c r="F481" t="s">
-        <v>920</v>
+        <v>898</v>
       </c>
       <c r="G481" t="n">
         <v>1</v>
@@ -17181,10 +17115,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>921</v>
+        <v>899</v>
       </c>
       <c r="F482" t="s">
-        <v>922</v>
+        <v>900</v>
       </c>
       <c r="G482" t="n">
         <v>1</v>
@@ -17210,10 +17144,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>923</v>
+        <v>901</v>
       </c>
       <c r="F483" t="s">
-        <v>924</v>
+        <v>902</v>
       </c>
       <c r="G483" t="n">
         <v>1</v>
@@ -17239,10 +17173,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>925</v>
+        <v>903</v>
       </c>
       <c r="F484" t="s">
-        <v>926</v>
+        <v>904</v>
       </c>
       <c r="G484" t="n">
         <v>1</v>
@@ -17268,10 +17202,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="F485" t="s">
-        <v>494</v>
+        <v>332</v>
       </c>
       <c r="G485" t="n">
         <v>1</v>
@@ -17297,10 +17231,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="F486" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="G486" t="n">
         <v>1</v>
@@ -17326,10 +17260,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>927</v>
+        <v>905</v>
       </c>
       <c r="F487" t="s">
-        <v>928</v>
+        <v>906</v>
       </c>
       <c r="G487" t="n">
         <v>4</v>
@@ -17355,10 +17289,10 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>929</v>
+        <v>907</v>
       </c>
       <c r="F488" t="s">
-        <v>930</v>
+        <v>908</v>
       </c>
       <c r="G488" t="n">
         <v>4</v>
@@ -17384,10 +17318,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>931</v>
+        <v>909</v>
       </c>
       <c r="F489" t="s">
-        <v>932</v>
+        <v>910</v>
       </c>
       <c r="G489" t="n">
         <v>1</v>
@@ -17413,10 +17347,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>933</v>
+        <v>911</v>
       </c>
       <c r="F490" t="s">
-        <v>934</v>
+        <v>912</v>
       </c>
       <c r="G490" t="n">
         <v>3</v>
@@ -17442,10 +17376,10 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>935</v>
+        <v>913</v>
       </c>
       <c r="F491" t="s">
-        <v>936</v>
+        <v>914</v>
       </c>
       <c r="G491" t="n">
         <v>1</v>
@@ -17471,10 +17405,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>937</v>
+        <v>915</v>
       </c>
       <c r="F492" t="s">
-        <v>938</v>
+        <v>916</v>
       </c>
       <c r="G492" t="n">
         <v>1</v>
@@ -17500,10 +17434,10 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>939</v>
+        <v>917</v>
       </c>
       <c r="F493" t="s">
-        <v>940</v>
+        <v>918</v>
       </c>
       <c r="G493" t="n">
         <v>1</v>
@@ -17529,10 +17463,10 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
-        <v>941</v>
+        <v>919</v>
       </c>
       <c r="F494" t="s">
-        <v>942</v>
+        <v>920</v>
       </c>
       <c r="G494" t="n">
         <v>1</v>
@@ -17558,10 +17492,10 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
-        <v>943</v>
+        <v>921</v>
       </c>
       <c r="F495" t="s">
-        <v>944</v>
+        <v>922</v>
       </c>
       <c r="G495" t="n">
         <v>1</v>
@@ -17587,10 +17521,10 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>945</v>
+        <v>923</v>
       </c>
       <c r="F496" t="s">
-        <v>946</v>
+        <v>924</v>
       </c>
       <c r="G496" t="n">
         <v>1</v>
@@ -17616,10 +17550,10 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
-        <v>947</v>
+        <v>925</v>
       </c>
       <c r="F497" t="s">
-        <v>948</v>
+        <v>926</v>
       </c>
       <c r="G497" t="n">
         <v>25</v>
@@ -17645,10 +17579,10 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
-        <v>947</v>
+        <v>925</v>
       </c>
       <c r="F498" t="s">
-        <v>949</v>
+        <v>927</v>
       </c>
       <c r="G498" t="n">
         <v>2</v>
